--- a/Tables_data/AG_SpeciesList.xlsx
+++ b/Tables_data/AG_SpeciesList.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alissa.iverson\.ssh\HLC_soil_and_veg\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alissa.iverson\.ssh\HLC_soil_and_veg\Tables_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF1A26B-72B5-4884-8749-CEA6890D76CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9952CC89-2582-4B9E-A3BF-7EAF4A7B5293}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="116">
   <si>
     <t>VegHit_SoilSurfaceHit</t>
   </si>
@@ -251,13 +253,130 @@
   </si>
   <si>
     <t>Verbascum thapsus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Above-ground Species Pool </t>
+  </si>
+  <si>
+    <t>WIS</t>
+  </si>
+  <si>
+    <t>Naturalized*</t>
+  </si>
+  <si>
+    <t>Bidens frondosa</t>
+  </si>
+  <si>
+    <t>Capsella bursa-pastoris</t>
+  </si>
+  <si>
+    <t>Carex nebrascensis</t>
+  </si>
+  <si>
+    <t>cf. Poa sp.</t>
+  </si>
+  <si>
+    <t>Cyperus squarrosus</t>
+  </si>
+  <si>
+    <t>Descurainia sophia</t>
+  </si>
+  <si>
+    <t>Diplachne fusca ssp. fascicularis</t>
+  </si>
+  <si>
+    <t>Duchesnea indica</t>
+  </si>
+  <si>
+    <t>Echinochloa crus-galli</t>
+  </si>
+  <si>
+    <t>Epilobium ciliatum ssp. ciliatum</t>
+  </si>
+  <si>
+    <t>Eragrostis pectinacea</t>
+  </si>
+  <si>
+    <t>Juncus bufonius</t>
+  </si>
+  <si>
+    <t>Juncus sp.</t>
+  </si>
+  <si>
+    <t>Kochia scoparia</t>
+  </si>
+  <si>
+    <t>Lamium amplexicaule</t>
+  </si>
+  <si>
+    <t>Leucophysalis grandiflora</t>
+  </si>
+  <si>
+    <t>Malva neglecta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melilotus sp. </t>
+  </si>
+  <si>
+    <t>Mentha arvensis</t>
+  </si>
+  <si>
+    <t>Nepeta cataria</t>
+  </si>
+  <si>
+    <t>Oenothera cf. villosa</t>
+  </si>
+  <si>
+    <t>Poa cf. pratensis</t>
+  </si>
+  <si>
+    <t>Polygonum aviculare</t>
+  </si>
+  <si>
+    <t>Populus sp.</t>
+  </si>
+  <si>
+    <t>Puccinellia nuttalliana</t>
+  </si>
+  <si>
+    <t>Rhamnus cf. cathartica</t>
+  </si>
+  <si>
+    <t>Rorippa palustris</t>
+  </si>
+  <si>
+    <t>Sagina procumbens</t>
+  </si>
+  <si>
+    <t>Sclerochloa dura</t>
+  </si>
+  <si>
+    <t>Sonchus asper</t>
+  </si>
+  <si>
+    <t>Sporobolus cryptandrus</t>
+  </si>
+  <si>
+    <t>Thlaspi arvense</t>
+  </si>
+  <si>
+    <t>Veronica americana</t>
+  </si>
+  <si>
+    <t>Veronica anagallis-aquatica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below-ground Species </t>
+  </si>
+  <si>
+    <t>Above-ground Species</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +392,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -282,7 +429,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -290,15 +437,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,4 +2024,1811 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C72176B-7CCD-458C-BCA5-485A8A842EA2}">
+  <dimension ref="A1:G58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="2">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F86202-17CD-42F4-BB8B-A424D3D301DC}">
+  <dimension ref="C1:D58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="42.5703125" style="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="14"/>
+      <c r="D51" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="14"/>
+      <c r="D52" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="14"/>
+      <c r="D53" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="14"/>
+      <c r="D54" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="14"/>
+      <c r="D55" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="14"/>
+      <c r="D56" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="14"/>
+      <c r="D57" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="14"/>
+      <c r="D58" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tables_data/AG_SpeciesList.xlsx
+++ b/Tables_data/AG_SpeciesList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alissa.iverson\.ssh\HLC_soil_and_veg\Tables_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9952CC89-2582-4B9E-A3BF-7EAF4A7B5293}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE6322D-6872-42F4-A99A-7BE1AA96F773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -524,7 +524,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3371,460 +3370,453 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F86202-17CD-42F4-BB8B-A424D3D301DC}">
   <dimension ref="C1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="42.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="14"/>
-      <c r="D51" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="14"/>
-      <c r="D52" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="14"/>
-      <c r="D53" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="14"/>
-      <c r="D54" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="14"/>
-      <c r="D55" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="14"/>
-      <c r="D56" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="14"/>
-      <c r="D57" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="14"/>
-      <c r="D58" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>76</v>
       </c>
     </row>
